--- a/end/StuSet/学生奖惩信息导入模板.xlsx
+++ b/end/StuSet/学生奖惩信息导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\shandong\aqschool\end\StuSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DFA448-6D18-48A0-8798-47D72C27112E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748E90BD-8BED-4190-A3EA-A21207B0FCF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17745" yWindow="1995" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,22 +55,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期(格式：2020-08-01)</t>
+    <t>2020-09-10（格式）</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>严格按照系统上存入的数据名称来填写</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,29 +118,16 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -151,26 +135,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,13 +174,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,27 +460,27 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="12.25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="13" customWidth="1"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="12.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="12" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="13" customWidth="1"/>
-    <col min="8" max="8" width="24.25" style="13" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="13" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="13" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="13" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="13" customWidth="1"/>
-    <col min="14" max="14" width="10" style="13" customWidth="1"/>
-    <col min="15" max="15" width="10.125" style="13" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="13"/>
+    <col min="6" max="6" width="16.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="12" customWidth="1"/>
+    <col min="8" max="8" width="26.625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="12" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="13.25" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10" style="12" customWidth="1"/>
+    <col min="15" max="15" width="10.125" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="24" customHeight="1">
@@ -542,12 +505,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -563,8 +524,8 @@
       <c r="E2" s="7"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="12">
-        <v>44044</v>
+      <c r="H2" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5">
@@ -576,7 +537,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:15" ht="16.5">
+    <row r="4" spans="1:15" ht="16.5" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -584,15 +545,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="J4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5">
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -600,13 +554,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.5">
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -614,25 +563,14 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.5">
-      <c r="A7" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
       <c r="G7" s="6"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="4"/>
@@ -1040,12 +978,9 @@
       <c r="G52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J4:N7"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{49D4FCB3-86E2-45BF-B8A7-2D3FDE6972F0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F8:F1048576 A7" xr:uid="{49D4FCB3-86E2-45BF-B8A7-2D3FDE6972F0}">
       <formula1>"奖励,惩罚"</formula1>
     </dataValidation>
   </dataValidations>
